--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angptl1-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angptl1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.118943333333334</v>
+        <v>2.077520333333334</v>
       </c>
       <c r="H2">
-        <v>6.35683</v>
+        <v>6.232561</v>
       </c>
       <c r="I2">
-        <v>0.01863691494020291</v>
+        <v>0.01823274661216651</v>
       </c>
       <c r="J2">
-        <v>0.01863691494020291</v>
+        <v>0.01823274661216651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.74848166666666</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N2">
-        <v>194.245445</v>
+        <v>214.423775</v>
       </c>
       <c r="O2">
-        <v>0.9402357523751964</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P2">
-        <v>0.9402357523751964</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q2">
-        <v>137.1983635710389</v>
+        <v>148.4899175041972</v>
       </c>
       <c r="R2">
-        <v>1234.78527213935</v>
+        <v>1336.409257537775</v>
       </c>
       <c r="S2">
-        <v>0.01752309374075423</v>
+        <v>0.01707669181343427</v>
       </c>
       <c r="T2">
-        <v>0.01752309374075423</v>
+        <v>0.01707669181343427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.118943333333334</v>
+        <v>2.077520333333334</v>
       </c>
       <c r="H3">
-        <v>6.35683</v>
+        <v>6.232561</v>
       </c>
       <c r="I3">
-        <v>0.01863691494020291</v>
+        <v>0.01823274661216651</v>
       </c>
       <c r="J3">
-        <v>0.01863691494020291</v>
+        <v>0.01823274661216651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.258629666666667</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N3">
-        <v>9.775889000000001</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O3">
-        <v>0.04731972144341098</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P3">
-        <v>0.04731972144341098</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q3">
-        <v>6.904851607985558</v>
+        <v>6.769869391303223</v>
       </c>
       <c r="R3">
-        <v>62.14366447187001</v>
+        <v>60.928824521729</v>
       </c>
       <c r="S3">
-        <v>0.0008818936235349464</v>
+        <v>0.0007785509962938679</v>
       </c>
       <c r="T3">
-        <v>0.0008818936235349464</v>
+        <v>0.0007785509962938675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.118943333333334</v>
+        <v>2.077520333333334</v>
       </c>
       <c r="H4">
-        <v>6.35683</v>
+        <v>6.232561</v>
       </c>
       <c r="I4">
-        <v>0.01863691494020291</v>
+        <v>0.01823274661216651</v>
       </c>
       <c r="J4">
-        <v>0.01863691494020291</v>
+        <v>0.01823274661216651</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.023043</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N4">
-        <v>0.069129</v>
+        <v>0.318823</v>
       </c>
       <c r="O4">
-        <v>0.0003346156061777663</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P4">
-        <v>0.0003346156061777663</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q4">
-        <v>0.04882681123</v>
+        <v>0.2207870884114445</v>
       </c>
       <c r="R4">
-        <v>0.43944130107</v>
+        <v>1.987083795703</v>
       </c>
       <c r="S4">
-        <v>6.236202589999466E-06</v>
+        <v>2.53910375098776E-05</v>
       </c>
       <c r="T4">
-        <v>6.236202589999466E-06</v>
+        <v>2.53910375098776E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,108 +726,108 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.118943333333334</v>
+        <v>2.077520333333334</v>
       </c>
       <c r="H5">
-        <v>6.35683</v>
+        <v>6.232561</v>
       </c>
       <c r="I5">
-        <v>0.01863691494020291</v>
+        <v>0.01823274661216651</v>
       </c>
       <c r="J5">
-        <v>0.01863691494020291</v>
+        <v>0.01823274661216651</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7928556666666667</v>
+        <v>1.47377</v>
       </c>
       <c r="N5">
-        <v>2.378567</v>
+        <v>4.42131</v>
       </c>
       <c r="O5">
-        <v>0.01151333938780296</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P5">
-        <v>0.01151333938780296</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q5">
-        <v>1.680016229178889</v>
+        <v>3.061787141656667</v>
       </c>
       <c r="R5">
-        <v>15.12014606261</v>
+        <v>27.55608427491</v>
       </c>
       <c r="S5">
-        <v>0.0002145731268481717</v>
+        <v>0.0003521127649284931</v>
       </c>
       <c r="T5">
-        <v>0.0002145731268481717</v>
+        <v>0.000352112764928493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.118943333333334</v>
+        <v>110.931206</v>
       </c>
       <c r="H6">
-        <v>6.35683</v>
+        <v>332.793618</v>
       </c>
       <c r="I6">
-        <v>0.01863691494020291</v>
+        <v>0.9735551262378552</v>
       </c>
       <c r="J6">
-        <v>0.01863691494020291</v>
+        <v>0.9735551262378553</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.04108233333333334</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N6">
-        <v>0.123247</v>
+        <v>214.423775</v>
       </c>
       <c r="O6">
-        <v>0.0005965711874118121</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P6">
-        <v>0.0005965711874118121</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q6">
-        <v>0.08705113633444447</v>
+        <v>7928.762651940881</v>
       </c>
       <c r="R6">
-        <v>0.7834602270100001</v>
+        <v>71358.86386746794</v>
       </c>
       <c r="S6">
-        <v>1.111824647556979E-05</v>
+        <v>0.9118264630003252</v>
       </c>
       <c r="T6">
-        <v>1.111824647556979E-05</v>
+        <v>0.9118264630003252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>332.793618</v>
       </c>
       <c r="I7">
-        <v>0.9756822742323424</v>
+        <v>0.9735551262378552</v>
       </c>
       <c r="J7">
-        <v>0.9756822742323424</v>
+        <v>0.9735551262378553</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>64.74848166666666</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N7">
-        <v>194.245445</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O7">
-        <v>0.9402357523751964</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P7">
-        <v>0.9402357523751964</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q7">
-        <v>7182.627157952224</v>
+        <v>361.4837188307113</v>
       </c>
       <c r="R7">
-        <v>64643.64442157001</v>
+        <v>3253.353469476402</v>
       </c>
       <c r="S7">
-        <v>0.9173713571919893</v>
+        <v>0.04157148287102858</v>
       </c>
       <c r="T7">
-        <v>0.9173713571919893</v>
+        <v>0.04157148287102858</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>332.793618</v>
       </c>
       <c r="I8">
-        <v>0.9756822742323424</v>
+        <v>0.9735551262378552</v>
       </c>
       <c r="J8">
-        <v>0.9756822742323424</v>
+        <v>0.9735551262378553</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.258629666666667</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N8">
-        <v>9.775889000000001</v>
+        <v>0.318823</v>
       </c>
       <c r="O8">
-        <v>0.04731972144341098</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P8">
-        <v>0.04731972144341098</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q8">
-        <v>361.4837188307114</v>
+        <v>11.78913996351267</v>
       </c>
       <c r="R8">
-        <v>3253.353469476403</v>
+        <v>106.102259671614</v>
       </c>
       <c r="S8">
-        <v>0.04616901343394817</v>
+        <v>0.001355778986789841</v>
       </c>
       <c r="T8">
-        <v>0.04616901343394817</v>
+        <v>0.001355778986789841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>332.793618</v>
       </c>
       <c r="I9">
-        <v>0.9756822742323424</v>
+        <v>0.9735551262378552</v>
       </c>
       <c r="J9">
-        <v>0.9756822742323424</v>
+        <v>0.9735551262378553</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.023043</v>
+        <v>1.47377</v>
       </c>
       <c r="N9">
-        <v>0.069129</v>
+        <v>4.42131</v>
       </c>
       <c r="O9">
-        <v>0.0003346156061777663</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P9">
-        <v>0.0003346156061777663</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q9">
-        <v>2.556187779858</v>
+        <v>163.48708346662</v>
       </c>
       <c r="R9">
-        <v>23.005690018722</v>
+        <v>1471.38375119958</v>
       </c>
       <c r="S9">
-        <v>0.0003264785156291568</v>
+        <v>0.01880140137971159</v>
       </c>
       <c r="T9">
-        <v>0.0003264785156291568</v>
+        <v>0.01880140137971159</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,117 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>110.931206</v>
+        <v>0.112277</v>
       </c>
       <c r="H10">
-        <v>332.793618</v>
+        <v>0.336831</v>
       </c>
       <c r="I10">
-        <v>0.9756822742323424</v>
+        <v>0.0009853660917434513</v>
       </c>
       <c r="J10">
-        <v>0.9756822742323424</v>
+        <v>0.0009853660917434513</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7928556666666667</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N10">
-        <v>2.378567</v>
+        <v>214.423775</v>
       </c>
       <c r="O10">
-        <v>0.01151333938780296</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P10">
-        <v>0.01151333938780296</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q10">
-        <v>87.95243528726735</v>
+        <v>8.024952728558333</v>
       </c>
       <c r="R10">
-        <v>791.5719175854061</v>
+        <v>72.22457455702499</v>
       </c>
       <c r="S10">
-        <v>0.0112333611579004</v>
+        <v>0.0009228885493797618</v>
       </c>
       <c r="T10">
-        <v>0.0112333611579004</v>
+        <v>0.0009228885493797617</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>110.931206</v>
+        <v>0.112277</v>
       </c>
       <c r="H11">
-        <v>332.793618</v>
+        <v>0.336831</v>
       </c>
       <c r="I11">
-        <v>0.9756822742323424</v>
+        <v>0.0009853660917434513</v>
       </c>
       <c r="J11">
-        <v>0.9756822742323424</v>
+        <v>0.0009853660917434513</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.04108233333333334</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N11">
-        <v>0.123247</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O11">
-        <v>0.0005965711874118121</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P11">
-        <v>0.0005965711874118121</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q11">
-        <v>4.557312781960668</v>
+        <v>0.3658691630843333</v>
       </c>
       <c r="R11">
-        <v>41.01581503764601</v>
+        <v>3.292822467759</v>
       </c>
       <c r="S11">
-        <v>0.0005820639328754459</v>
+        <v>4.207581933536788E-05</v>
       </c>
       <c r="T11">
-        <v>0.0005820639328754459</v>
+        <v>4.207581933536787E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08976033333333333</v>
+        <v>0.112277</v>
       </c>
       <c r="H12">
-        <v>0.269281</v>
+        <v>0.336831</v>
       </c>
       <c r="I12">
-        <v>0.0007894763729740736</v>
+        <v>0.0009853660917434513</v>
       </c>
       <c r="J12">
-        <v>0.0007894763729740735</v>
+        <v>0.0009853660917434513</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>64.74848166666666</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N12">
-        <v>194.245445</v>
+        <v>0.318823</v>
       </c>
       <c r="O12">
-        <v>0.9402357523751964</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P12">
-        <v>0.9402357523751964</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q12">
-        <v>5.811845297227221</v>
+        <v>0.01193216332366667</v>
       </c>
       <c r="R12">
-        <v>52.30660767504499</v>
+        <v>0.107389469913</v>
       </c>
       <c r="S12">
-        <v>0.0007422939115257193</v>
+        <v>1.37222701157511E-06</v>
       </c>
       <c r="T12">
-        <v>0.0007422939115257192</v>
+        <v>1.37222701157511E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.08976033333333333</v>
+        <v>0.112277</v>
       </c>
       <c r="H13">
-        <v>0.269281</v>
+        <v>0.336831</v>
       </c>
       <c r="I13">
-        <v>0.0007894763729740736</v>
+        <v>0.0009853660917434513</v>
       </c>
       <c r="J13">
-        <v>0.0007894763729740735</v>
+        <v>0.0009853660917434513</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.258629666666667</v>
+        <v>1.47377</v>
       </c>
       <c r="N13">
-        <v>9.775889000000001</v>
+        <v>4.42131</v>
       </c>
       <c r="O13">
-        <v>0.04731972144341098</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P13">
-        <v>0.04731972144341098</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q13">
-        <v>0.2924956850898889</v>
+        <v>0.16547047429</v>
       </c>
       <c r="R13">
-        <v>2.632461165809</v>
+        <v>1.48923426861</v>
       </c>
       <c r="S13">
-        <v>3.73578020552876E-05</v>
+        <v>1.902949601674644E-05</v>
       </c>
       <c r="T13">
-        <v>3.735780205528759E-05</v>
+        <v>1.902949601674644E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08976033333333333</v>
+        <v>0.4605913333333334</v>
       </c>
       <c r="H14">
-        <v>0.269281</v>
+        <v>1.381774</v>
       </c>
       <c r="I14">
-        <v>0.0007894763729740736</v>
+        <v>0.00404224446696627</v>
       </c>
       <c r="J14">
-        <v>0.0007894763729740735</v>
+        <v>0.00404224446696627</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.023043</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N14">
-        <v>0.069129</v>
+        <v>214.423775</v>
       </c>
       <c r="O14">
-        <v>0.0003346156061777663</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P14">
-        <v>0.0003346156061777663</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q14">
-        <v>0.002068347361</v>
+        <v>32.92057747520555</v>
       </c>
       <c r="R14">
-        <v>0.018615126249</v>
+        <v>296.28519727685</v>
       </c>
       <c r="S14">
-        <v>2.641711151057439E-07</v>
+        <v>0.003785944293816991</v>
       </c>
       <c r="T14">
-        <v>2.641711151057439E-07</v>
+        <v>0.003785944293816991</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,87 +1337,87 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08976033333333333</v>
+        <v>0.4605913333333334</v>
       </c>
       <c r="H15">
-        <v>0.269281</v>
+        <v>1.381774</v>
       </c>
       <c r="I15">
-        <v>0.0007894763729740736</v>
+        <v>0.00404224446696627</v>
       </c>
       <c r="J15">
-        <v>0.0007894763729740735</v>
+        <v>0.00404224446696627</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7928556666666667</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N15">
-        <v>2.378567</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O15">
-        <v>0.01151333938780296</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P15">
-        <v>0.01151333938780296</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q15">
-        <v>0.07116698892522223</v>
+        <v>1.500896583009556</v>
       </c>
       <c r="R15">
-        <v>0.6405029003270001</v>
+        <v>13.508069247086</v>
       </c>
       <c r="S15">
-        <v>9.089509420702225E-06</v>
+        <v>0.0001726066578976062</v>
       </c>
       <c r="T15">
-        <v>9.089509420702225E-06</v>
+        <v>0.0001726066578976062</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08976033333333333</v>
+        <v>0.4605913333333334</v>
       </c>
       <c r="H16">
-        <v>0.269281</v>
+        <v>1.381774</v>
       </c>
       <c r="I16">
-        <v>0.0007894763729740736</v>
+        <v>0.00404224446696627</v>
       </c>
       <c r="J16">
-        <v>0.0007894763729740735</v>
+        <v>0.00404224446696627</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.04108233333333334</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N16">
-        <v>0.123247</v>
+        <v>0.318823</v>
       </c>
       <c r="O16">
-        <v>0.0005965711874118121</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P16">
-        <v>0.0005965711874118121</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q16">
-        <v>0.003687563934111111</v>
+        <v>0.04894903688911112</v>
       </c>
       <c r="R16">
-        <v>0.033188075407</v>
+        <v>0.4405413320020001</v>
       </c>
       <c r="S16">
-        <v>4.709788572587138E-07</v>
+        <v>5.629255046869756E-06</v>
       </c>
       <c r="T16">
-        <v>4.709788572587137E-07</v>
+        <v>5.629255046869755E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.490833</v>
+        <v>0.4605913333333334</v>
       </c>
       <c r="H17">
-        <v>1.472499</v>
+        <v>1.381774</v>
       </c>
       <c r="I17">
-        <v>0.004317063475432543</v>
+        <v>0.00404224446696627</v>
       </c>
       <c r="J17">
-        <v>0.004317063475432542</v>
+        <v>0.00404224446696627</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,33 +1488,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>64.74848166666666</v>
+        <v>1.47377</v>
       </c>
       <c r="N17">
-        <v>194.245445</v>
+        <v>4.42131</v>
       </c>
       <c r="O17">
-        <v>0.9402357523751964</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P17">
-        <v>0.9402357523751964</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q17">
-        <v>31.780691501895</v>
+        <v>0.6788056893266667</v>
       </c>
       <c r="R17">
-        <v>286.026223517055</v>
+        <v>6.10925120394</v>
       </c>
       <c r="S17">
-        <v>0.004059057424874797</v>
+        <v>7.806426020480241E-05</v>
       </c>
       <c r="T17">
-        <v>0.004059057424874796</v>
+        <v>7.80642602048024E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.490833</v>
+        <v>0.362858</v>
       </c>
       <c r="H18">
-        <v>1.472499</v>
+        <v>1.088574</v>
       </c>
       <c r="I18">
-        <v>0.004317063475432543</v>
+        <v>0.003184516591268427</v>
       </c>
       <c r="J18">
-        <v>0.004317063475432542</v>
+        <v>0.003184516591268428</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.258629666666667</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N18">
-        <v>9.775889000000001</v>
+        <v>214.423775</v>
       </c>
       <c r="O18">
-        <v>0.04731972144341098</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P18">
-        <v>0.04731972144341098</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q18">
-        <v>1.599442975179</v>
+        <v>25.93512738298332</v>
       </c>
       <c r="R18">
-        <v>14.394986776611</v>
+        <v>233.41614644685</v>
       </c>
       <c r="S18">
-        <v>0.0002042822411109916</v>
+        <v>0.002982601006892254</v>
       </c>
       <c r="T18">
-        <v>0.0002042822411109916</v>
+        <v>0.002982601006892254</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.490833</v>
+        <v>0.362858</v>
       </c>
       <c r="H19">
-        <v>1.472499</v>
+        <v>1.088574</v>
       </c>
       <c r="I19">
-        <v>0.004317063475432543</v>
+        <v>0.003184516591268427</v>
       </c>
       <c r="J19">
-        <v>0.004317063475432542</v>
+        <v>0.003184516591268428</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.023043</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N19">
-        <v>0.069129</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O19">
-        <v>0.0003346156061777663</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P19">
-        <v>0.0003346156061777663</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q19">
-        <v>0.011310264819</v>
+        <v>1.182419843587333</v>
       </c>
       <c r="R19">
-        <v>0.101792383371</v>
+        <v>10.641778592286</v>
       </c>
       <c r="S19">
-        <v>1.444556811739755E-06</v>
+        <v>0.000135981079405336</v>
       </c>
       <c r="T19">
-        <v>1.444556811739754E-06</v>
+        <v>0.000135981079405336</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.490833</v>
+        <v>0.362858</v>
       </c>
       <c r="H20">
-        <v>1.472499</v>
+        <v>1.088574</v>
       </c>
       <c r="I20">
-        <v>0.004317063475432543</v>
+        <v>0.003184516591268427</v>
       </c>
       <c r="J20">
-        <v>0.004317063475432542</v>
+        <v>0.003184516591268428</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.7928556666666667</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N20">
-        <v>2.378567</v>
+        <v>0.318823</v>
       </c>
       <c r="O20">
-        <v>0.01151333938780296</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P20">
-        <v>0.01151333938780296</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q20">
-        <v>0.3891597254370001</v>
+        <v>0.03856249204466667</v>
       </c>
       <c r="R20">
-        <v>3.502437528933001</v>
+        <v>0.347062428402</v>
       </c>
       <c r="S20">
-        <v>4.970381695134305E-05</v>
+        <v>4.434777817060674E-06</v>
       </c>
       <c r="T20">
-        <v>4.970381695134304E-05</v>
+        <v>4.434777817060674E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.490833</v>
+        <v>0.362858</v>
       </c>
       <c r="H21">
-        <v>1.472499</v>
+        <v>1.088574</v>
       </c>
       <c r="I21">
-        <v>0.004317063475432543</v>
+        <v>0.003184516591268427</v>
       </c>
       <c r="J21">
-        <v>0.004317063475432542</v>
+        <v>0.003184516591268428</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.04108233333333334</v>
+        <v>1.47377</v>
       </c>
       <c r="N21">
-        <v>0.123247</v>
+        <v>4.42131</v>
       </c>
       <c r="O21">
-        <v>0.0005965711874118121</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P21">
-        <v>0.0005965711874118121</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q21">
-        <v>0.020164564917</v>
+        <v>0.5347692346599999</v>
       </c>
       <c r="R21">
-        <v>0.181481084253</v>
+        <v>4.81292311194</v>
       </c>
       <c r="S21">
-        <v>2.575435683670956E-06</v>
+        <v>6.149972715377665E-05</v>
       </c>
       <c r="T21">
-        <v>2.575435683670956E-06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.06529233333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.195877</v>
-      </c>
-      <c r="I22">
-        <v>0.0005742709790480672</v>
-      </c>
-      <c r="J22">
-        <v>0.0005742709790480673</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>64.74848166666666</v>
-      </c>
-      <c r="N22">
-        <v>194.245445</v>
-      </c>
-      <c r="O22">
-        <v>0.9402357523751964</v>
-      </c>
-      <c r="P22">
-        <v>0.9402357523751964</v>
-      </c>
-      <c r="Q22">
-        <v>4.227579447807222</v>
-      </c>
-      <c r="R22">
-        <v>38.048215030265</v>
-      </c>
-      <c r="S22">
-        <v>0.0005399501060525001</v>
-      </c>
-      <c r="T22">
-        <v>0.0005399501060525002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.06529233333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.195877</v>
-      </c>
-      <c r="I23">
-        <v>0.0005742709790480672</v>
-      </c>
-      <c r="J23">
-        <v>0.0005742709790480673</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.258629666666667</v>
-      </c>
-      <c r="N23">
-        <v>9.775889000000001</v>
-      </c>
-      <c r="O23">
-        <v>0.04731972144341098</v>
-      </c>
-      <c r="P23">
-        <v>0.04731972144341098</v>
-      </c>
-      <c r="Q23">
-        <v>0.2127635344058889</v>
-      </c>
-      <c r="R23">
-        <v>1.914871809653</v>
-      </c>
-      <c r="S23">
-        <v>2.717434276158945E-05</v>
-      </c>
-      <c r="T23">
-        <v>2.717434276158945E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.06529233333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.195877</v>
-      </c>
-      <c r="I24">
-        <v>0.0005742709790480672</v>
-      </c>
-      <c r="J24">
-        <v>0.0005742709790480673</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.023043</v>
-      </c>
-      <c r="N24">
-        <v>0.069129</v>
-      </c>
-      <c r="O24">
-        <v>0.0003346156061777663</v>
-      </c>
-      <c r="P24">
-        <v>0.0003346156061777663</v>
-      </c>
-      <c r="Q24">
-        <v>0.001504531237</v>
-      </c>
-      <c r="R24">
-        <v>0.013540781133</v>
-      </c>
-      <c r="S24">
-        <v>1.921600317644683E-07</v>
-      </c>
-      <c r="T24">
-        <v>1.921600317644684E-07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.06529233333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.195877</v>
-      </c>
-      <c r="I25">
-        <v>0.0005742709790480672</v>
-      </c>
-      <c r="J25">
-        <v>0.0005742709790480673</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.7928556666666667</v>
-      </c>
-      <c r="N25">
-        <v>2.378567</v>
-      </c>
-      <c r="O25">
-        <v>0.01151333938780296</v>
-      </c>
-      <c r="P25">
-        <v>0.01151333938780296</v>
-      </c>
-      <c r="Q25">
-        <v>0.05176739647322222</v>
-      </c>
-      <c r="R25">
-        <v>0.4659065682590001</v>
-      </c>
-      <c r="S25">
-        <v>6.611776682346283E-06</v>
-      </c>
-      <c r="T25">
-        <v>6.611776682346285E-06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.06529233333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.195877</v>
-      </c>
-      <c r="I26">
-        <v>0.0005742709790480672</v>
-      </c>
-      <c r="J26">
-        <v>0.0005742709790480673</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.04108233333333334</v>
-      </c>
-      <c r="N26">
-        <v>0.123247</v>
-      </c>
-      <c r="O26">
-        <v>0.0005965711874118121</v>
-      </c>
-      <c r="P26">
-        <v>0.0005965711874118121</v>
-      </c>
-      <c r="Q26">
-        <v>0.002682361402111111</v>
-      </c>
-      <c r="R26">
-        <v>0.024141252619</v>
-      </c>
-      <c r="S26">
-        <v>3.425935198668493E-07</v>
-      </c>
-      <c r="T26">
-        <v>3.425935198668494E-07</v>
+        <v>6.149972715377663E-05</v>
       </c>
     </row>
   </sheetData>
